--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C1A76-D8D2-304E-A85F-187EF89F7932}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A208CB58-CBA7-1A4C-8ABB-4E3A6064C5F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="460" windowWidth="17740" windowHeight="8960" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="7860" yWindow="460" windowWidth="17740" windowHeight="8960" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Ship's Name</t>
+  </si>
+  <si>
+    <t>Missile Speed (kn)</t>
+  </si>
+  <si>
+    <t>Ship Speed (kn)</t>
   </si>
 </sst>
 </file>
@@ -590,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -647,4 +654,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>530</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A208CB58-CBA7-1A4C-8ABB-4E3A6064C5F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3D452-E7FA-CD45-97A5-F2FDE4661EF1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="460" windowWidth="17740" windowHeight="8960" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3D452-E7FA-CD45-97A5-F2FDE4661EF1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E80F1-727C-2A42-9D52-2BA620E0B625}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="460" windowWidth="17740" windowHeight="8960" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Ship Speed (kn)</t>
+  </si>
+  <si>
+    <t>Time Step (minutes)</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,20 +673,26 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>530</v>
       </c>
       <c r="B2">
         <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E80F1-727C-2A42-9D52-2BA620E0B625}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63298B9E-DE5F-1C4E-96F3-49C751D24E23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="460" windowWidth="17740" windowHeight="8960" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Time Step (minutes)</t>
+  </si>
+  <si>
+    <t>Missile Range (NM)</t>
   </si>
 </sst>
 </file>
@@ -598,21 +601,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="4" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -625,8 +628,17 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -639,8 +651,17 @@
       <c r="D2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>530</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -652,6 +673,15 @@
       </c>
       <c r="D3">
         <v>60</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>530</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -661,37 +691,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>530</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
         <v>0.25</v>
       </c>
     </row>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63298B9E-DE5F-1C4E-96F3-49C751D24E23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9EB3E8-EF87-4845-807B-C64D9BA98D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -152,11 +152,17 @@
   <si>
     <t>Missile Range (NM)</t>
   </si>
+  <si>
+    <t>Defensive Missile Success Probability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -202,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,9 +620,10 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -637,8 +645,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -660,8 +671,11 @@
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -682,6 +696,9 @@
       </c>
       <c r="G3">
         <v>300</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9EB3E8-EF87-4845-807B-C64D9BA98D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABFD11-FEA3-7A44-8294-4349D47A34FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -155,13 +155,16 @@
   <si>
     <t>Defensive Missile Success Probability</t>
   </si>
+  <si>
+    <t>Offensive Missile Success Probability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -208,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +623,11 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -645,11 +649,14 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -672,10 +679,13 @@
         <v>100</v>
       </c>
       <c r="H2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -698,6 +708,9 @@
         <v>300</v>
       </c>
       <c r="H3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.16666666666666666</v>
       </c>
     </row>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABFD11-FEA3-7A44-8294-4349D47A34FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B769BE-8711-3945-A09A-23EAD8D95FB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B769BE-8711-3945-A09A-23EAD8D95FB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE0108E-8545-9546-B297-FBAE9402785D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>20</v>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE0108E-8545-9546-B297-FBAE9402785D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8972F3-20C9-9040-A42B-823BF232B093}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -153,10 +153,16 @@
     <t>Missile Range (NM)</t>
   </si>
   <si>
-    <t>Defensive Missile Success Probability</t>
-  </si>
-  <si>
     <t>Offensive Missile Success Probability</t>
+  </si>
+  <si>
+    <t>Defensive Missile Success Probability (if target offensive missile is 300-100 NM from its target - phase 1)</t>
+  </si>
+  <si>
+    <t>Defensive Missile Success Probability (if target offensive missile is 100-20 NM from its target - phase 2)</t>
+  </si>
+  <si>
+    <t>Defensive Missile Success Probability (if target offensive missile is 20-0 NM from its target - phase 3)</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +218,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3104C-6FB6-3F44-9F46-136694EB3D8F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,10 +633,12 @@
     <col min="4" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -650,13 +661,19 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -681,16 +698,22 @@
       <c r="H2" s="3">
         <v>0.9</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -710,8 +733,14 @@
       <c r="H3" s="3">
         <v>0.9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.16666666666666666</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8972F3-20C9-9040-A42B-823BF232B093}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19894E7D-CADC-C94E-8B7F-8C361F033DD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
   </si>
@@ -156,13 +156,31 @@
     <t>Offensive Missile Success Probability</t>
   </si>
   <si>
-    <t>Defensive Missile Success Probability (if target offensive missile is 300-100 NM from its target - phase 1)</t>
-  </si>
-  <si>
-    <t>Defensive Missile Success Probability (if target offensive missile is 100-20 NM from its target - phase 2)</t>
-  </si>
-  <si>
-    <t>Defensive Missile Success Probability (if target offensive missile is 20-0 NM from its target - phase 3)</t>
+    <t>Defensive Missile Success Probability (if target offensive missile is 100-20 NM from its target - phase 1)</t>
+  </si>
+  <si>
+    <t>Defensive Missile Success Probability (if target offensive missile is 20-5 NM from its target - phase 2)</t>
+  </si>
+  <si>
+    <t>Defensive Missile Success Probability (if target offensive missile is 5-1 NM from its target - phase 3)</t>
+  </si>
+  <si>
+    <t>Satellite</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Electronic Surveillance</t>
+  </si>
+  <si>
+    <t>Passive Sensors (Acoustic)</t>
+  </si>
+  <si>
+    <t>UAV</t>
+  </si>
+  <si>
+    <t>USV</t>
   </si>
 </sst>
 </file>
@@ -537,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3104C-6FB6-3F44-9F46-136694EB3D8F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -620,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +656,7 @@
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -672,8 +690,26 @@
       <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -693,22 +729,40 @@
         <v>530</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" s="3">
         <v>0.9</v>
       </c>
       <c r="I2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="4">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.16666666666666699</v>
       </c>
       <c r="K2" s="4">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -734,13 +788,31 @@
         <v>0.9</v>
       </c>
       <c r="I3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.16666666666666666</v>
       </c>
       <c r="K3" s="4">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19894E7D-CADC-C94E-8B7F-8C361F033DD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED92EFB-6983-0040-A64F-41BDF63F532C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>'full_grid' policy is a grid search over theta values using the high_low policy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>1)</t>
   </si>
@@ -44,91 +41,18 @@
     <t>4)</t>
   </si>
   <si>
-    <t>Use 'Sheet2' to set up the parameters for policy 'full_grid'</t>
-  </si>
-  <si>
     <t>5)</t>
   </si>
   <si>
     <t>6)</t>
   </si>
   <si>
-    <t>After setting up the parameters and saving this spreadsheet, just run  'AssetSellingDriverScript'</t>
-  </si>
-  <si>
     <t>7)</t>
   </si>
   <si>
-    <t>The exogenous process  for the asset price P_t is a random walk, where the P_{t+1} = P_t  + normal(mean_t+1, Variance). The mean_{t+1} is also a random variable, that depends on the bias_{t+1}.</t>
-  </si>
-  <si>
-    <t>Use 'Sheet3' to select the policy, the time horizon, the  parameters for the exogenous process (InitialPrice, InitialBias, UpStep, DownStep,Variance) and to determine the number of iterations and how often we should output the cumulative average of the contributions (for the 'full_grid' only)</t>
-  </si>
-  <si>
-    <r>
-      <t>The possible outcomes for the bias are {'Up','Neutral','Down'}. The bias is part of the state variable. The probability of bias_{t+1} being equal to Up', 'Neutral' or 'Down' depends on the bias_{t}. Use '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sheet4'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to set this probabiliy matrix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The possible outcomes for the mean are  {UpStep, 0, DownStep} depending if the bias is  'Up',' Neutral' or 'Down', respectively. Use '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sheet3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">' to set up these values. </t>
-    </r>
-  </si>
-  <si>
-    <t>Possible available policies are: sell_low, track, high_low and full_grid</t>
-  </si>
-  <si>
-    <t>Use 'Sheet1' to set up the parameters for policies 'sell_low','track' and 'high_low'</t>
-  </si>
-  <si>
     <t>Blue Ship</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Offensive Missiles</t>
   </si>
   <si>
@@ -150,9 +74,6 @@
     <t>Time Step (minutes)</t>
   </si>
   <si>
-    <t>Missile Range (NM)</t>
-  </si>
-  <si>
     <t>Offensive Missile Success Probability</t>
   </si>
   <si>
@@ -181,6 +102,30 @@
   </si>
   <si>
     <t>USV</t>
+  </si>
+  <si>
+    <t>ESSMs</t>
+  </si>
+  <si>
+    <t>Sea RAMs</t>
+  </si>
+  <si>
+    <t>CIWS (each has 3000 rounds)</t>
+  </si>
+  <si>
+    <t>ESSM Success Probability</t>
+  </si>
+  <si>
+    <t>Sea RAM Success Probability</t>
+  </si>
+  <si>
+    <t>CIWS Success Probability</t>
+  </si>
+  <si>
+    <t>Offensive Missile Range (NM)</t>
+  </si>
+  <si>
+    <t>Location (NM) 1D scale</t>
   </si>
 </sst>
 </file>
@@ -190,16 +135,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -556,7 +493,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,70 +501,40 @@
     <col min="2" max="2" width="73.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -638,80 +545,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="17" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="U1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -723,48 +650,66 @@
         <v>60</v>
       </c>
       <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>530</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>300</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3">
         <v>0.9</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>0.5</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="4">
+      <c r="N2" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -776,42 +721,60 @@
         <v>60</v>
       </c>
       <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>530</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>300</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="3">
         <v>0.9</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>0.5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
+      <c r="O3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -836,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED92EFB-6983-0040-A64F-41BDF63F532C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA4935-0F95-5E4F-A407-E55E813FD00D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="1" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="120" yWindow="7960" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1)</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Location (NM) 1D scale</t>
+  </si>
+  <si>
+    <t>Iterations of Simulation</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -785,10 +788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,14 +800,20 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA4935-0F95-5E4F-A407-E55E813FD00D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8012DB8-E980-F94A-9469-E74557520FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="7960" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="2780" yWindow="2740" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>530</v>
       </c>
       <c r="J2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" s="3">
         <v>0.9</v>
@@ -813,7 +813,7 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8012DB8-E980-F94A-9469-E74557520FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABB90C-A0E0-FD41-BCAF-7D335BBBE3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2740" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="120" yWindow="760" windowWidth="10540" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,6 +783,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABB90C-A0E0-FD41-BCAF-7D335BBBE3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D707585-4EC2-7C40-AF6A-C4F86CCFFD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="760" windowWidth="10540" windowHeight="14260" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="140" yWindow="1800" windowWidth="30520" windowHeight="18620" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>1)</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Sea RAMs</t>
   </si>
   <si>
-    <t>CIWS (each has 3000 rounds)</t>
-  </si>
-  <si>
     <t>ESSM Success Probability</t>
   </si>
   <si>
@@ -129,6 +126,24 @@
   </si>
   <si>
     <t>Iterations of Simulation</t>
+  </si>
+  <si>
+    <t>Offensive Missile Salvo Size</t>
+  </si>
+  <si>
+    <t>Defensive Missile Salvo Size</t>
+  </si>
+  <si>
+    <t>ESSM Salvo Size</t>
+  </si>
+  <si>
+    <t>CIWS Iteration Salvo Size</t>
+  </si>
+  <si>
+    <t>CIWS (each has 1500 rounds)</t>
+  </si>
+  <si>
+    <t>Sea RAM Salvo Size</t>
   </si>
 </sst>
 </file>
@@ -548,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="168" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,15 +580,15 @@
     <col min="11" max="11" width="31.6640625" customWidth="1"/>
     <col min="12" max="12" width="25.33203125" style="4" customWidth="1"/>
     <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="17" width="26" customWidth="1"/>
+    <col min="14" max="22" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -588,7 +603,7 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -597,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -612,34 +627,49 @@
         <v>18</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -668,7 +698,7 @@
         <v>530</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" s="3">
         <v>0.9</v>
@@ -691,26 +721,41 @@
       <c r="Q2" s="4">
         <v>0.1</v>
       </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" t="b">
+      <c r="R2" s="4">
+        <v>4</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4">
         <v>1</v>
       </c>
       <c r="W2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -762,22 +807,37 @@
       <c r="Q3" s="4">
         <v>0.1</v>
       </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="b">
+      <c r="R3" s="4">
+        <v>4</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4">
         <v>1</v>
       </c>
       <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -806,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +874,7 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D707585-4EC2-7C40-AF6A-C4F86CCFFD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E03C8D9-B87F-6143-AC9D-E75462D72B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1800" windowWidth="30520" windowHeight="18620" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="4880" yWindow="460" windowWidth="30520" windowHeight="18620" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,28 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>4)</t>
-  </si>
-  <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t>7)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Blue Ship</t>
   </si>
@@ -107,15 +85,9 @@
     <t>ESSMs</t>
   </si>
   <si>
-    <t>Sea RAMs</t>
-  </si>
-  <si>
     <t>ESSM Success Probability</t>
   </si>
   <si>
-    <t>Sea RAM Success Probability</t>
-  </si>
-  <si>
     <t>CIWS Success Probability</t>
   </si>
   <si>
@@ -143,7 +115,13 @@
     <t>CIWS (each has 1500 rounds)</t>
   </si>
   <si>
-    <t>Sea RAM Salvo Size</t>
+    <t>SeaRAMs</t>
+  </si>
+  <si>
+    <t>SeaRAM Success Probability</t>
+  </si>
+  <si>
+    <t>SeaRAM Salvo Size</t>
   </si>
 </sst>
 </file>
@@ -182,14 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -507,66 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3104C-6FB6-3F44-9F46-136694EB3D8F}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="73.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="168" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,100 +495,100 @@
     <col min="8" max="9" width="17.1640625" customWidth="1"/>
     <col min="10" max="10" width="27.5" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="26.33203125" customWidth="1"/>
     <col min="14" max="22" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -698,42 +615,42 @@
         <v>530</v>
       </c>
       <c r="J2">
-        <v>300</v>
-      </c>
-      <c r="K2" s="3">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>0.5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>0.5</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>0.1</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>4</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>2</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>2</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>1</v>
       </c>
       <c r="W2" t="b">
@@ -757,7 +674,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -786,40 +703,40 @@
       <c r="J3">
         <v>300</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>0.9</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>0.5</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <v>0.5</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="2">
         <v>0.1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="2">
         <v>4</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="2">
         <v>2</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="2">
         <v>1</v>
       </c>
       <c r="W3" t="b">
@@ -847,12 +764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,10 +780,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +791,7 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E03C8D9-B87F-6143-AC9D-E75462D72B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178484B-E93E-4B4E-B54C-5858D89D21B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="460" windowWidth="30520" windowHeight="18620" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="168" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="150" zoomScaleNormal="168" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
         <v>530</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" s="1">
         <v>0.9</v>
@@ -769,7 +769,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/missile_policy_parameters.xlsx
+++ b/missile_policy_parameters.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karadowling/Desktop/Independent Work/Missile Code/Missile-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178484B-E93E-4B4E-B54C-5858D89D21B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4941B-87D2-2749-8730-5612DCF22AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="460" windowWidth="30520" windowHeight="18620" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Instructions" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Blue Ship</t>
   </si>
@@ -122,6 +123,9 @@
   </si>
   <si>
     <t>SeaRAM Salvo Size</t>
+  </si>
+  <si>
+    <t>This excel file has cells for all the fixed inputs imported into the scripts that run simulations.  Sheets 1 and 2 are labeled with the different inputs that can be changed.</t>
   </si>
 </sst>
 </file>
@@ -131,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,16 +143,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,18 +179,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,14 +522,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A61B92-35BD-8149-A49D-6397BB9559D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="88">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="150" zoomScaleNormal="168" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="Q1" zoomScale="150" zoomScaleNormal="168" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -500,7 +564,7 @@
     <col min="14" max="22" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="81" customHeight="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -586,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -764,7 +828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040044BC-2CEB-564A-A6AC-4AD27E516DA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -772,13 +836,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0.25</v>
       </c>
